--- a/src/main/resources/input_test.xlsx
+++ b/src/main/resources/input_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Z003985/repos/work-with-excel/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3F44C9-2B18-D44E-8135-99A09DB0654B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1D5CFF-6EB3-BA49-B602-0385991F9138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-42900" yWindow="-3340" windowWidth="27640" windowHeight="16940" xr2:uid="{F084E14F-F793-C04D-804A-E5ECAF200BD2}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>val11</t>
   </si>
@@ -49,18 +49,12 @@
     <t>val13</t>
   </si>
   <si>
-    <t>val22</t>
-  </si>
-  <si>
     <t>val 21</t>
   </si>
   <si>
     <t>val23</t>
   </si>
   <si>
-    <t>val31</t>
-  </si>
-  <si>
     <t>val32</t>
   </si>
   <si>
@@ -89,12 +83,6 @@
   </si>
   <si>
     <t>val24</t>
-  </si>
-  <si>
-    <t>val25</t>
-  </si>
-  <si>
-    <t>val34</t>
   </si>
   <si>
     <t>val35</t>
@@ -488,7 +476,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -499,19 +487,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="203" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -525,44 +513,32 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/input_test.xlsx
+++ b/src/main/resources/input_test.xlsx
@@ -3,28 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Z003985/repos/work-with-excel/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0EF724-CC81-E149-8F1F-59513AB69F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8D0512-F266-7048-80CE-8A4BC537B4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42900" yWindow="-3340" windowWidth="27640" windowHeight="16940" xr2:uid="{F084E14F-F793-C04D-804A-E5ECAF200BD2}"/>
+    <workbookView xWindow="-42900" yWindow="-3340" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{F084E14F-F793-C04D-804A-E5ECAF200BD2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 " sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Kickouts" r:id="rId7" sheetId="4"/>
+    <sheet name="Completed" r:id="rId8" sheetId="5"/>
+    <sheet name="Claims" r:id="rId9" sheetId="6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1 '!$A$1:$C$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$C$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$C$4</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
   <si>
     <t>val13</t>
   </si>
@@ -123,7 +118,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,8 +146,22 @@
       <name val="Gujarati MT"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="AngsanaUPC"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Al Bayan Plain"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,8 +180,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -179,22 +201,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -502,32 +557,26 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01F81776-78E1-7F4F-90AC-FBAAFB085C90}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="203" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -538,7 +587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -549,7 +598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -561,37 +610,30 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C4" xr:uid="{19370297-853B-674D-9F76-142E5ECB40FD}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19370297-853B-674D-9F76-142E5ECB40FD}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="203" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -602,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -613,7 +655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -625,37 +667,30 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C4" xr:uid="{19370297-853B-674D-9F76-142E5ECB40FD}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1910E0-4C47-CB4E-9DCE-999A889C58DF}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="203" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -666,7 +701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -677,7 +712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -689,7 +724,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C4" xr:uid="{19370297-853B-674D-9F76-142E5ECB40FD}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/input_test.xlsx
+++ b/src/main/resources/input_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Z003985/repos/work-with-excel/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8D0512-F266-7048-80CE-8A4BC537B4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C395DBD-88DC-1D42-AAE5-1BACE34635C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-42900" yWindow="-3340" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{F084E14F-F793-C04D-804A-E5ECAF200BD2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="26">
   <si>
     <t>val13</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>val123</t>
+  </si>
+  <si>
+    <t>2177483647</t>
   </si>
 </sst>
 </file>
@@ -214,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -228,6 +231,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,7 +724,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
